--- a/TCCB/TCCB/Utils/Excel/ds-hoplehoso.xlsx
+++ b/TCCB/TCCB/Utils/Excel/ds-hoplehoso.xlsx
@@ -5,14 +5,14 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="6 22 2018 12 00 00 AM" sheetId="1" r:id="rId1"/>
+    <sheet name="6 7 2018 12 00 00 AM" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>DANH SÁCH ỨNG VIÊN CÓ HỒ SƠ HỢP LỆ SAU KHI ĐÃ RÀ XOÁT</t>
   </si>
@@ -20,7 +20,7 @@
     <t>SỞ GIÁO DỤC VÀ ĐÀO TẠO TP.HỒ CHÍ MINH</t>
   </si>
   <si>
-    <t>Tính tới ngày 22/6/2018</t>
+    <t>Tính tới ngày 7/6/2018</t>
   </si>
   <si>
     <t>STT</t>
@@ -171,33 +171,6 @@
   </si>
   <si>
     <t>Trương Hữu Thành</t>
-  </si>
-  <si>
-    <t>Trương Thị</t>
-  </si>
-  <si>
-    <t>Hạnh</t>
-  </si>
-  <si>
-    <t>23/7/2018</t>
-  </si>
-  <si>
-    <t>12345678910</t>
-  </si>
-  <si>
-    <t>abc,Phường Bến Nghé, Quận 1</t>
-  </si>
-  <si>
-    <t>abc,Phường Bến Nghé, Quận 1, Thành Phố Hồ Chí Minh</t>
-  </si>
-  <si>
-    <t>Thành Phố Hồ Chí Minh</t>
-  </si>
-  <si>
-    <t>Tốt nghiệp Trung cấp ngành sư phạm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Giáo viên  Thể dục</t>
   </si>
 </sst>
 </file>
@@ -273,7 +246,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:AC8"/>
+  <dimension ref="A2:AC7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -307,7 +280,6 @@
     <col min="26" max="26" width="11.7026890345982" customWidth="1"/>
     <col min="27" max="27" width="14.284905569894" customWidth="1"/>
     <col min="28" max="28" width="27.7576533726283" customWidth="1"/>
-    <col min="29" max="29" width="16.454827444894" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -434,7 +406,7 @@
       <c r="AB6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AC6" s="3" t="s">
+      <c r="AC6" s="0" t="s">
         <v>31</v>
       </c>
     </row>
@@ -521,92 +493,6 @@
         <v>51</v>
       </c>
       <c r="AC7" s="0" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>2</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="J8" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="K8" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="L8" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="M8" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="N8" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="O8" s="0">
-        <v>2018</v>
-      </c>
-      <c r="P8" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q8" s="0">
-        <v>7</v>
-      </c>
-      <c r="S8" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="T8" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="U8" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="V8" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="W8" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="X8" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y8" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z8" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA8" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB8" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC8" s="0" t="s">
         <v>52</v>
       </c>
     </row>
